--- a/data_excel.xlsx
+++ b/data_excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Page:</t>
   </si>
@@ -50,12 +50,15 @@
     <t>Session words:</t>
   </si>
   <si>
-    <t>Number of form tags:</t>
+    <t>Referer:</t>
   </si>
   <si>
     <t>/bank/account-activity.html/</t>
   </si>
   <si>
+    <t>/online-banking.html/</t>
+  </si>
+  <si>
     <t>/bank/account-activity-find-transactions.html/</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>/help.html/</t>
   </si>
   <si>
+    <t>/help.html?topic=/help/topic3.html/</t>
+  </si>
+  <si>
     <t>/http://www8.hp.com/us/en/privacy/privacy.html/</t>
   </si>
   <si>
@@ -77,6 +83,9 @@
     <t>/index.html/</t>
   </si>
   <si>
+    <t>/bank/online-statements.html/</t>
+  </si>
+  <si>
     <t>/logout.html/</t>
   </si>
   <si>
@@ -101,6 +110,9 @@
     <t>/bank/money-map.html/</t>
   </si>
   <si>
+    <t>/bank/pay-bills-saved-payee.html/</t>
+  </si>
+  <si>
     <t>/resources/extjs/app/app.js/</t>
   </si>
   <si>
@@ -125,34 +137,25 @@
     <t>/bank/online-statements-by-name.html/</t>
   </si>
   <si>
-    <t>/bank/online-statements.html/</t>
-  </si>
-  <si>
     <t>/bank/pay-bills-new-payee.html/</t>
   </si>
   <si>
+    <t>/bank/pay-bills.html/</t>
+  </si>
+  <si>
     <t>/bank/pay-bills-purchase-currency.html/</t>
   </si>
   <si>
-    <t>/bank/pay-bills-saved-payee.html/</t>
-  </si>
-  <si>
-    <t>/bank/pay-bills.html/</t>
-  </si>
-  <si>
     <t>/bank/transfer-funds-confirm.html/</t>
   </si>
   <si>
+    <t>/bank/transfer-funds-verify.html/</t>
+  </si>
+  <si>
     <t>/bank/transfer-funds.html/</t>
   </si>
   <si>
-    <t>/bank/transfer-funds-verify.html/</t>
-  </si>
-  <si>
     <t>/#carousel/</t>
-  </si>
-  <si>
-    <t>/online-banking.html/</t>
   </si>
   <si>
     <t>/resources/js/jquery-1.7.2.min.js/</t>
@@ -491,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +502,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,15 +540,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0.02941176470588235</v>
@@ -572,18 +575,24 @@
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0.02941176470588235</v>
@@ -610,18 +619,24 @@
         <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0.02941176470588235</v>
@@ -648,18 +663,24 @@
         <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.2941176470588235</v>
@@ -686,18 +707,24 @@
         <v>3</v>
       </c>
       <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>0.3823529411764706</v>
@@ -726,16 +753,22 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>0.3823529411764706</v>
@@ -764,16 +797,22 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
         <v>0.3823529411764706</v>
@@ -802,16 +841,22 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
         <v>0.3823529411764706</v>
@@ -838,18 +883,24 @@
         <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>0.3529411764705882</v>
@@ -876,18 +927,24 @@
         <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D11" t="n">
         <v>0.3823529411764706</v>
@@ -914,18 +971,24 @@
         <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
         <v>0.3529411764705882</v>
@@ -952,18 +1015,24 @@
         <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
         <v>0.1176470588235294</v>
@@ -990,18 +1059,24 @@
         <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
         <v>0.3823529411764706</v>
@@ -1028,18 +1103,24 @@
         <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
         <v>0.3529411764705882</v>
@@ -1066,15 +1147,21 @@
         <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1104,15 +1191,21 @@
         <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1142,18 +1235,24 @@
         <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>0.02941176470588235</v>
@@ -1180,18 +1279,24 @@
         <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>0.02941176470588235</v>
@@ -1218,12 +1323,18 @@
         <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B20" t="n">
         <v>5</v>
@@ -1258,10 +1369,16 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -1296,10 +1413,16 @@
       <c r="L21" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -1334,10 +1457,16 @@
       <c r="L22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -1372,10 +1501,16 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -1410,10 +1545,16 @@
       <c r="L24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -1448,13 +1589,19 @@
       <c r="L25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1484,18 +1631,24 @@
         <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
         <v>0.08823529411764705</v>
@@ -1522,18 +1675,24 @@
         <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
         <v>0.1176470588235294</v>
@@ -1562,16 +1721,22 @@
       <c r="L28" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
         <v>0.08823529411764705</v>
@@ -1598,15 +1763,21 @@
         <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1636,12 +1807,18 @@
         <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31" t="n">
         <v>11</v>
@@ -1674,15 +1851,21 @@
         <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B32" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -1712,18 +1895,24 @@
         <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="n">
         <v>12</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>0.02941176470588235</v>
@@ -1750,12 +1939,18 @@
         <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -1788,12 +1983,18 @@
         <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
         <v>9</v>
@@ -1828,10 +2029,16 @@
       <c r="L35" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -1865,6 +2072,12 @@
       </c>
       <c r="L36" t="n">
         <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel.xlsx
+++ b/data_excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>Page:</t>
   </si>
@@ -50,115 +50,184 @@
     <t>Session words:</t>
   </si>
   <si>
-    <t>Referer:</t>
+    <t>Number of form tags:</t>
+  </si>
+  <si>
+    <t>Method:</t>
+  </si>
+  <si>
+    <t>Have Third-party connection</t>
   </si>
   <si>
     <t>/bank/account-activity.html/</t>
   </si>
   <si>
+    <t>/search.html/</t>
+  </si>
+  <si>
+    <t>/bank/pay-bills-saved-payee.html/</t>
+  </si>
+  <si>
+    <t>/index.html/</t>
+  </si>
+  <si>
+    <t>/help.html/</t>
+  </si>
+  <si>
+    <t>/bank/transfer-funds-confirm.html/</t>
+  </si>
+  <si>
+    <t>/bank/pay-bills-new-payee.html/</t>
+  </si>
+  <si>
+    <t>/bank/redirect.html/</t>
+  </si>
+  <si>
+    <t>/resources/js/placeholders.min.js/</t>
+  </si>
+  <si>
+    <t>/bank/online-statements.html/</t>
+  </si>
+  <si>
+    <t>/bank/pay-bills.html/</t>
+  </si>
+  <si>
+    <t>/resources/js/jquery-1.8.2.min.js/</t>
+  </si>
+  <si>
+    <t>/#/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/model/DetailedReport.js/</t>
+  </si>
+  <si>
+    <t>/bank/pay-bills-purchase-currency.html/</t>
+  </si>
+  <si>
+    <t>/bank/money-map.html/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/ext/ext-all.js/</t>
+  </si>
+  <si>
+    <t>/bank/online-statements-by-name.html/</t>
+  </si>
+  <si>
+    <t>/bank/transfer-funds-verify.html/</t>
+  </si>
+  <si>
+    <t>/a/</t>
+  </si>
+  <si>
+    <t>/resources/js/bootstrap.min.js/</t>
+  </si>
+  <si>
     <t>/online-banking.html/</t>
   </si>
   <si>
+    <t>/bank/account-activity-show-transactions.html/</t>
+  </si>
+  <si>
+    <t>/bank/account-summary.html/</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/login.html/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/store/ReportOutFlow.js/</t>
+  </si>
+  <si>
+    <t>/auth/accept-certs.html/</t>
+  </si>
+  <si>
+    <t>/bank/pay-bills-conversion-rate-for-currency.html/</t>
+  </si>
+  <si>
+    <t>/bank/transfer-funds.html/</t>
+  </si>
+  <si>
+    <t>/logout.html/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/view/Report.js/</t>
+  </si>
+  <si>
+    <t>/bank/online-statements-for-account.html/</t>
+  </si>
+  <si>
+    <t>/#os_2009/</t>
+  </si>
+  <si>
+    <t>/forgot-password.html/</t>
+  </si>
+  <si>
+    <t>/#os_2011/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/store/ReportCredit.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/view/SummaryReport.js/</t>
+  </si>
+  <si>
+    <t>/#os_2012/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/app.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/view/DetailedReportWindow.js/</t>
+  </si>
+  <si>
+    <t>/signin.html/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/model/Report.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/controller/Report.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/store/ReportSummary.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/view/Viewport.js/</t>
+  </si>
+  <si>
+    <t>/auth/security-check.html/</t>
+  </si>
+  <si>
+    <t>/resources/js/jquery-1.7.2.min.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/store/DetailedReport.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/view/DetailedReport.js/</t>
+  </si>
+  <si>
+    <t>/resources/js/jquery-ui.min.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/store/ReportInflow.js/</t>
+  </si>
+  <si>
+    <t>/#carousel/</t>
+  </si>
+  <si>
+    <t>/43/auth/accept-certs.html/</t>
+  </si>
+  <si>
+    <t>/bank/money-map-get-spendings-by-type.html/</t>
+  </si>
+  <si>
     <t>/bank/account-activity-find-transactions.html/</t>
   </si>
   <si>
-    <t>/bank/account-activity-show-transactions.html/</t>
-  </si>
-  <si>
-    <t>/bank/redirect.html/</t>
-  </si>
-  <si>
-    <t>/help.html/</t>
-  </si>
-  <si>
-    <t>/help.html?topic=/help/topic3.html/</t>
-  </si>
-  <si>
-    <t>/http://www8.hp.com/us/en/privacy/privacy.html/</t>
-  </si>
-  <si>
-    <t>/http://www8.hp.com/us/en/privacy/terms-of-use.html/</t>
-  </si>
-  <si>
-    <t>/index.html/</t>
-  </si>
-  <si>
-    <t>/bank/online-statements.html/</t>
-  </si>
-  <si>
-    <t>/logout.html/</t>
-  </si>
-  <si>
-    <t>/resources/js/bootstrap.min.js/</t>
-  </si>
-  <si>
-    <t>/resources/js/jquery-1.8.2.min.js/</t>
-  </si>
-  <si>
-    <t>/resources/js/jquery-ui.min.js/</t>
-  </si>
-  <si>
-    <t>/resources/js/placeholders.min.js/</t>
-  </si>
-  <si>
-    <t>/search.html/</t>
-  </si>
-  <si>
-    <t>/bank/account-summary.html/</t>
-  </si>
-  <si>
-    <t>/bank/money-map.html/</t>
-  </si>
-  <si>
-    <t>/bank/pay-bills-saved-payee.html/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/app.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/ext/ext-all.js/</t>
-  </si>
-  <si>
-    <t>/bank/online-statements-for-account.html/</t>
-  </si>
-  <si>
-    <t>/#os_2009/</t>
-  </si>
-  <si>
     <t>/#os_2010/</t>
-  </si>
-  <si>
-    <t>/#os_2011/</t>
-  </si>
-  <si>
-    <t>/#os_2012/</t>
-  </si>
-  <si>
-    <t>/bank/online-statements-by-name.html/</t>
-  </si>
-  <si>
-    <t>/bank/pay-bills-new-payee.html/</t>
-  </si>
-  <si>
-    <t>/bank/pay-bills.html/</t>
-  </si>
-  <si>
-    <t>/bank/pay-bills-purchase-currency.html/</t>
-  </si>
-  <si>
-    <t>/bank/transfer-funds-confirm.html/</t>
-  </si>
-  <si>
-    <t>/bank/transfer-funds-verify.html/</t>
-  </si>
-  <si>
-    <t>/bank/transfer-funds.html/</t>
-  </si>
-  <si>
-    <t>/#carousel/</t>
-  </si>
-  <si>
-    <t>/resources/js/jquery-1.7.2.min.js/</t>
   </si>
 </sst>
 </file>
@@ -494,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,128 +608,134 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.1114982578397213</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00267379679144385</v>
+        <v>0.08712121212121213</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.775557561562891e-17</v>
+        <v>0.03984768403194045</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02073292208924862</v>
+        <v>0.0156253206114702</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>13</v>
+      <c r="N2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>14</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.2580357142857143</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0.2694921804922523</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02066135080339162</v>
+        <v>0.03108546913740821</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
-      <c r="N3" t="s">
-        <v>13</v>
+      <c r="N3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.2321428571428571</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.01488095238095238</v>
       </c>
       <c r="H4" t="n">
-        <v>1.665334536937735e-16</v>
+        <v>0.06495380605321828</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02066135080339162</v>
+        <v>0.01551789392509615</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
@@ -668,87 +743,87 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
-      <c r="N4" t="s">
-        <v>13</v>
+      <c r="N4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
       <c r="D5" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2689075630252101</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.06536796536796537</v>
       </c>
       <c r="H5" t="n">
-        <v>7.724682102305812e-09</v>
+        <v>0.3832222162052168</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03356892395071431</v>
+        <v>0.03555915334793452</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
-      <c r="N5" t="s">
-        <v>13</v>
+      <c r="N5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.08928571428571427</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.2406015037593985</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000445632798573975</v>
+        <v>0.0001623376623376623</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3592106038043665</v>
+        <v>0.3832222162052167</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04497232898105812</v>
+        <v>0.03241100519978637</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -756,8 +831,8 @@
       <c r="M6" t="n">
         <v>0</v>
       </c>
-      <c r="N6" t="s">
-        <v>18</v>
+      <c r="N6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -765,43 +840,43 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.1785714285714285</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.06438631790744466</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3592106038043664</v>
+        <v>0.002042285357213888</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04497232898105812</v>
+        <v>0.01366714233750245</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -809,43 +884,43 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.01553030303030303</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3592106038043664</v>
+        <v>0.06495380605321839</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04497232898105812</v>
+        <v>0.01551789392509615</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -853,512 +928,512 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2941176470588235</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.198489010989011</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01292335115864528</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3592106038043664</v>
+        <v>0.1220101323011133</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04497232898105812</v>
+        <v>0.02611470890349007</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
-      <c r="N9" t="s">
-        <v>22</v>
+      <c r="N9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3550420168067227</v>
+        <v>0.2867063492063492</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1796053057645244</v>
+        <v>0.3832222162052165</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03927351396387576</v>
+        <v>0.03555915334793452</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
-      <c r="N10" t="s">
-        <v>22</v>
+      <c r="N10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.2321428571428571</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.09726443768996959</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.03511904761904762</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3592106038043664</v>
+        <v>0.02936290788769236</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04497232898105812</v>
+        <v>0.01390212373037859</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
-      <c r="N11" t="s">
-        <v>22</v>
+      <c r="N11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3550420168067227</v>
+        <v>0.1306122448979592</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.04204545454545455</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3592106038043665</v>
+        <v>0.08895929803417707</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04325690947992433</v>
+        <v>0.02036583350987784</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
-      <c r="N12" t="s">
-        <v>22</v>
+      <c r="N12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1225490196078431</v>
+        <v>0.2716165413533834</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.008116883116883116</v>
       </c>
       <c r="H13" t="n">
-        <v>7.724683032117595e-09</v>
+        <v>0.349470203727042</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02460158403954323</v>
+        <v>0.03390223326996181</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="s">
-        <v>22</v>
+      <c r="N13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.1742277992277992</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3592106038043664</v>
+        <v>0.2174433828776018</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04497232898105812</v>
+        <v>0.03467990150815636</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
-      <c r="N14" t="s">
-        <v>22</v>
+      <c r="N14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3550420168067227</v>
+        <v>0.08897783251231525</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1796053057645243</v>
+        <v>0.01753718814496035</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03927351396387576</v>
+        <v>0.01290797168359496</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="N15" t="s">
-        <v>22</v>
+      <c r="N15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.1053206997084548</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.775557561562891e-17</v>
+        <v>0.09236535717367049</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01932939704286643</v>
+        <v>0.03043017462685053</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.1114982578397213</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.09794372294372293</v>
       </c>
       <c r="H17" t="n">
-        <v>3.469446951953613e-18</v>
+        <v>0.05909292180195365</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01932939704286643</v>
+        <v>0.01659398158013117</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
-      <c r="N17" t="s">
-        <v>31</v>
+      <c r="N17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.08897783251231525</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.775557561562891e-17</v>
+        <v>0.01753718814496049</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02061596166871678</v>
+        <v>0.01290797168359496</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
-      <c r="N18" t="s">
-        <v>31</v>
+      <c r="N18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.673617379884034e-18</v>
+        <v>0.01130023681561738</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02061596166871678</v>
+        <v>0.01644103511139523</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
-      <c r="N19" t="s">
-        <v>31</v>
+      <c r="N19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.08020050125313283</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.00487012987012987</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.006881639628517093</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01932939704286643</v>
+        <v>0.01380270852570022</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1367,18 +1442,18 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -1387,25 +1462,25 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.1563706563706564</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.1037133471646375</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02241715214490725</v>
+        <v>0.01976762080640198</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1416,40 +1491,40 @@
       <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="N21" t="s">
-        <v>22</v>
+      <c r="N21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.2867063492063492</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.002922077922077922</v>
       </c>
       <c r="H22" t="n">
-        <v>5.551115123125781e-17</v>
+        <v>0.3832222162052167</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02241715214490725</v>
+        <v>0.03555915334793452</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1460,40 +1535,40 @@
       <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="s">
-        <v>22</v>
+      <c r="N22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.1137300357129644</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02241715214490725</v>
+        <v>0.01396840053349749</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1504,13 +1579,13 @@
       <c r="M23" t="n">
         <v>0</v>
       </c>
-      <c r="N23" t="s">
-        <v>22</v>
+      <c r="N23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -1519,22 +1594,22 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.08897783251231525</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5.551115123125781e-17</v>
+        <v>0.0118257197427318</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02241715214490725</v>
+        <v>0.01330563250230841</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1546,39 +1621,39 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.02329545454545455</v>
       </c>
       <c r="H25" t="n">
-        <v>4.163336342344336e-17</v>
+        <v>0.02053984022293772</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02241715214490725</v>
+        <v>0.01760087916597613</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1592,25 +1667,25 @@
       <c r="M25" t="n">
         <v>0</v>
       </c>
-      <c r="N25" t="s">
-        <v>22</v>
+      <c r="N25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1622,198 +1697,198 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01932939704286643</v>
+        <v>0.01396840053349749</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
-      <c r="N26" t="s">
-        <v>30</v>
+      <c r="N26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08823529411764705</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.1785714285714285</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.001623376623376623</v>
       </c>
       <c r="H27" t="n">
-        <v>7.724682879461929e-09</v>
+        <v>6.938893903907227e-18</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02326963027901804</v>
+        <v>0.01396840053349749</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="N27" t="s">
-        <v>41</v>
+      <c r="N27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.08897783251231525</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.544936531483465e-08</v>
+        <v>0.01753718814496042</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06377473231983437</v>
+        <v>0.01290797168359496</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
-      <c r="N28" t="s">
-        <v>41</v>
+      <c r="N28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08823529411764705</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4117647058823529</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7.724682893339717e-09</v>
+        <v>-8.326672684688673e-17</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02326963027901804</v>
+        <v>0.01380270852570022</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
-      <c r="N29" t="s">
-        <v>41</v>
+      <c r="N29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4117647058823529</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.1032142857142857</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.775557561562891e-17</v>
+        <v>0.04567726526371029</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01932939704286643</v>
+        <v>0.01437079540957658</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1821,131 +1896,131 @@
         <v>43</v>
       </c>
       <c r="B31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.1785714285714285</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.01452922077922078</v>
       </c>
       <c r="H31" t="n">
-        <v>5.551115123125781e-17</v>
+        <v>0.02318822088671301</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02077234695010206</v>
+        <v>0.01729962096998109</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
-      <c r="N31" t="s">
-        <v>44</v>
+      <c r="N31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.2321428571428571</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3235294117647059</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.2457482993197279</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00089126559714795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.747002708109902e-16</v>
+        <v>0.2694921804922523</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02233225727786953</v>
+        <v>0.0294285490594355</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="s">
-        <v>44</v>
+      <c r="N32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3529411764705882</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.08897783251231525</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00089126559714795</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-4.163336342344336e-16</v>
+        <v>0.01753718814496051</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02105990949578148</v>
+        <v>0.01290797168359496</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
-      <c r="N33" t="s">
-        <v>45</v>
+      <c r="N33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1953,92 +2028,92 @@
         <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.08928571428571427</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1988235294117647</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.02077922077922078</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1796052980398422</v>
+        <v>0.008714120480205921</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02331856755489409</v>
+        <v>0.01345857897104435</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2647058823529412</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.06880952380952381</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.387778780781445e-17</v>
+        <v>0.00258611633541142</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01932939704286643</v>
+        <v>0.01529393659587566</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
-      <c r="N35" t="s">
-        <v>21</v>
+      <c r="N35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -2047,37 +2122,1005 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>5.551115123125781e-17</v>
+        <v>-6.938893903907227e-17</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02104481654400022</v>
+        <v>0.01380270852570022</v>
       </c>
       <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.06880952380952381</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.002586116335411496</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.01529393659587566</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.08897783251231525</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.01753718814496038</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.01290797168359496</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.08897783251231525</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.01753718814496047</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.01290797168359496</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.06880952380952381</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.002586116335411482</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.01529393659587566</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.08897783251231525</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.01753718814496048</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.01290797168359496</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.08897783251231525</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.01753718814496052</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.01290797168359496</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-4.163336342344336e-17</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.01380270852570022</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.08897783251231525</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.01753718814496055</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.01290797168359496</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.08897783251231525</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.01753718814496045</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.01290797168359496</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.08897783251231525</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.01753718814496055</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.01290797168359496</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.08897783251231525</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.01753718814496044</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.01290797168359496</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-8.326672684688673e-17</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.01380270852570022</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>2</v>
       </c>
-      <c r="K36" t="n">
-        <v>3</v>
-      </c>
-      <c r="L36" t="n">
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.1053206997084548</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.03375201247817442</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.01396840053349749</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.08897783251231525</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.01753718814496058</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.01290797168359496</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.08897783251231525</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.01753718814496063</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.01290797168359496</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.120016611295681</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.07677952579595014</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.01651204597187977</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.08897783251231525</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.01753718814496045</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.01290797168359496</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
         <v>2</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
-        <v>21</v>
+      <c r="D54" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1563852813852814</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.1137300357129643</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0156253206114702</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.775557561562891e-17</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.01380270852570022</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.08897783251231525</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.01753718814496066</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.01290797168359496</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.08897783251231525</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.01182571974273184</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.01330563250230841</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.06880952380952381</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.002586116335411503</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.01529393659587566</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel.xlsx
+++ b/data_excel.xlsx
@@ -59,175 +59,175 @@
     <t>Have Third-party connection</t>
   </si>
   <si>
+    <t>/bank/pay-bills.html/</t>
+  </si>
+  <si>
+    <t>/resources/js/jquery-ui.min.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/view/DetailedReportWindow.js/</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/bank/online-statements-by-name.html/</t>
+  </si>
+  <si>
+    <t>/bank/transfer-funds.html/</t>
+  </si>
+  <si>
+    <t>/resources/js/placeholders.min.js/</t>
+  </si>
+  <si>
+    <t>/bank/transfer-funds-verify.html/</t>
+  </si>
+  <si>
+    <t>/help.html/</t>
+  </si>
+  <si>
+    <t>/bank/online-statements.html/</t>
+  </si>
+  <si>
+    <t>/bank/redirect.html/</t>
+  </si>
+  <si>
+    <t>/online-banking.html/</t>
+  </si>
+  <si>
+    <t>/logout.html/</t>
+  </si>
+  <si>
+    <t>/bank/pay-bills-new-payee.html/</t>
+  </si>
+  <si>
+    <t>/resources/js/jquery-1.8.2.min.js/</t>
+  </si>
+  <si>
+    <t>/bank/money-map.html/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/store/ReportInflow.js/</t>
+  </si>
+  <si>
+    <t>/bank/money-map-get-spendings-by-type.html/</t>
+  </si>
+  <si>
+    <t>/bank/account-summary.html/</t>
+  </si>
+  <si>
+    <t>/43/auth/accept-certs.html/</t>
+  </si>
+  <si>
+    <t>/bank/pay-bills-saved-payee.html/</t>
+  </si>
+  <si>
+    <t>/index.html/</t>
+  </si>
+  <si>
     <t>/bank/account-activity.html/</t>
   </si>
   <si>
+    <t>/login.html/</t>
+  </si>
+  <si>
     <t>/search.html/</t>
   </si>
   <si>
-    <t>/bank/pay-bills-saved-payee.html/</t>
-  </si>
-  <si>
-    <t>/index.html/</t>
-  </si>
-  <si>
-    <t>/help.html/</t>
+    <t>/bank/pay-bills-conversion-rate-for-currency.html/</t>
+  </si>
+  <si>
+    <t>/resources/js/bootstrap.min.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/view/Report.js/</t>
+  </si>
+  <si>
+    <t>/auth/security-check.html/</t>
   </si>
   <si>
     <t>/bank/transfer-funds-confirm.html/</t>
   </si>
   <si>
-    <t>/bank/pay-bills-new-payee.html/</t>
-  </si>
-  <si>
-    <t>/bank/redirect.html/</t>
-  </si>
-  <si>
-    <t>/resources/js/placeholders.min.js/</t>
-  </si>
-  <si>
-    <t>/bank/online-statements.html/</t>
-  </si>
-  <si>
-    <t>/bank/pay-bills.html/</t>
-  </si>
-  <si>
-    <t>/resources/js/jquery-1.8.2.min.js/</t>
+    <t>/resources/extjs/app/store/ReportCredit.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/view/SummaryReport.js/</t>
+  </si>
+  <si>
+    <t>/bank/pay-bills-purchase-currency.html/</t>
+  </si>
+  <si>
+    <t>/auth/accept-certs.html/</t>
+  </si>
+  <si>
+    <t>/bank/account-activity-find-transactions.html/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/view/DetailedReport.js/</t>
+  </si>
+  <si>
+    <t>/signin.html/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/model/Report.js/</t>
+  </si>
+  <si>
+    <t>/bank/online-statements-for-account.html/</t>
+  </si>
+  <si>
+    <t>/bank/account-activity-show-transactions.html/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/view/Viewport.js/</t>
   </si>
   <si>
     <t>/#/</t>
   </si>
   <si>
+    <t>/#os_2011/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/store/DetailedReport.js/</t>
+  </si>
+  <si>
+    <t>/#os_2012/</t>
+  </si>
+  <si>
+    <t>/#carousel/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/store/ReportOutFlow.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/app.js/</t>
+  </si>
+  <si>
     <t>/resources/extjs/app/model/DetailedReport.js/</t>
   </si>
   <si>
-    <t>/bank/pay-bills-purchase-currency.html/</t>
-  </si>
-  <si>
-    <t>/bank/money-map.html/</t>
+    <t>/#os_2010/</t>
   </si>
   <si>
     <t>/resources/extjs/ext/ext-all.js/</t>
   </si>
   <si>
-    <t>/bank/online-statements-by-name.html/</t>
-  </si>
-  <si>
-    <t>/bank/transfer-funds-verify.html/</t>
+    <t>/resources/extjs/app/store/ReportSummary.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/controller/Report.js/</t>
+  </si>
+  <si>
+    <t>/forgot-password.html/</t>
+  </si>
+  <si>
+    <t>/resources/js/jquery-1.7.2.min.js/</t>
   </si>
   <si>
     <t>/a/</t>
   </si>
   <si>
-    <t>/resources/js/bootstrap.min.js/</t>
-  </si>
-  <si>
-    <t>/online-banking.html/</t>
-  </si>
-  <si>
-    <t>/bank/account-activity-show-transactions.html/</t>
-  </si>
-  <si>
-    <t>/bank/account-summary.html/</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>/login.html/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/ReportOutFlow.js/</t>
-  </si>
-  <si>
-    <t>/auth/accept-certs.html/</t>
-  </si>
-  <si>
-    <t>/bank/pay-bills-conversion-rate-for-currency.html/</t>
-  </si>
-  <si>
-    <t>/bank/transfer-funds.html/</t>
-  </si>
-  <si>
-    <t>/logout.html/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/view/Report.js/</t>
-  </si>
-  <si>
-    <t>/bank/online-statements-for-account.html/</t>
-  </si>
-  <si>
     <t>/#os_2009/</t>
-  </si>
-  <si>
-    <t>/forgot-password.html/</t>
-  </si>
-  <si>
-    <t>/#os_2011/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/ReportCredit.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/view/SummaryReport.js/</t>
-  </si>
-  <si>
-    <t>/#os_2012/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/app.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/view/DetailedReportWindow.js/</t>
-  </si>
-  <si>
-    <t>/signin.html/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/model/Report.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/controller/Report.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/ReportSummary.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/view/Viewport.js/</t>
-  </si>
-  <si>
-    <t>/auth/security-check.html/</t>
-  </si>
-  <si>
-    <t>/resources/js/jquery-1.7.2.min.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/DetailedReport.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/view/DetailedReport.js/</t>
-  </si>
-  <si>
-    <t>/resources/js/jquery-ui.min.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/ReportInflow.js/</t>
-  </si>
-  <si>
-    <t>/#carousel/</t>
-  </si>
-  <si>
-    <t>/43/auth/accept-certs.html/</t>
-  </si>
-  <si>
-    <t>/bank/money-map-get-spendings-by-type.html/</t>
-  </si>
-  <si>
-    <t>/bank/account-activity-find-transactions.html/</t>
-  </si>
-  <si>
-    <t>/#os_2010/</t>
   </si>
 </sst>
 </file>
@@ -620,37 +620,37 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1728571428571428</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04577922077922078</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1544260969330206</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02899925917931458</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2678571428571428</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1114982578397213</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.08712121212121213</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.03984768403194045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0156253206114702</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2580357142857143</v>
+        <v>0.1548594847775175</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2694921804922523</v>
+        <v>0.08366114574550718</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03108546913740821</v>
+        <v>0.01520395117348026</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -708,43 +708,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2321428571428571</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01488095238095238</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06495380605321828</v>
+        <v>0.02476545982203718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01551789392509615</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -755,25 +755,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E5" t="n">
         <v>0.1607142857142857</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2689075630252101</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06536796536796537</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3832222162052168</v>
+        <v>-3.769296615281638e-18</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03555915334793452</v>
+        <v>0.01266030573509798</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -796,37 +796,37 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08928571428571427</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2406015037593985</v>
+        <v>0.1167953667953668</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001623376623376623</v>
+        <v>0.01623376623376623</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3832222162052167</v>
+        <v>0.02355044747624124</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03241100519978637</v>
+        <v>0.01513294031299572</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -843,37 +843,37 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.08928571428571427</v>
       </c>
       <c r="E7" t="n">
         <v>0.1785714285714285</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06438631790744466</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.01566558441558441</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002042285357213888</v>
+        <v>0.08325141688241333</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01366714233750245</v>
+        <v>0.01847690628854064</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
@@ -884,43 +884,43 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2678571428571428</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.2698979591836734</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01553030303030303</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06495380605321839</v>
+        <v>0.368700877527211</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01551789392509615</v>
+        <v>0.03408536654173774</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -928,28 +928,28 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.1964285714285714</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
-        <v>0.198489010989011</v>
+        <v>0.1137218045112782</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.006818181818181818</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1220101323011133</v>
+        <v>0.01910423430902503</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02611470890349007</v>
+        <v>0.01249461372730071</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -972,28 +972,28 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.08928571428571427</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2867063492063492</v>
+        <v>0.2400793650793651</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.0001623376623376623</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3832222162052165</v>
+        <v>0.3642960675940251</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03555915334793452</v>
+        <v>0.03093721839358959</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1019,25 +1019,25 @@
         <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="E11" t="n">
         <v>0.2321428571428571</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09726443768996959</v>
+        <v>0.1516290726817043</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03511904761904762</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02936290788769236</v>
+        <v>0.08347202877701961</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01390212373037859</v>
+        <v>0.01507940904893814</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1060,31 +1060,31 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
+        <v>0.1964285714285714</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.1071428571428571</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F12" t="n">
-        <v>0.1306122448979592</v>
+        <v>0.210801393728223</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04204545454545455</v>
+        <v>0.133495670995671</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08895929803417707</v>
+        <v>0.1766750060003274</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02036583350987784</v>
+        <v>0.02464092209729329</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1104,43 +1104,43 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1607142857142857</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1571428571428571</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.03733766233766234</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.08460814503820331</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.01266030573509798</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="n">
-        <v>15</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.2678571428571428</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.2716165413533834</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.008116883116883116</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.349470203727042</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.03390223326996181</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1151,31 +1151,31 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.2321428571428571</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1742277992277992</v>
+        <v>0.2485902255639098</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2174433828776018</v>
+        <v>0.2806987224220769</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03467990150815636</v>
+        <v>0.02795476225323871</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1192,43 +1192,43 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.1252587991718426</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.004112554112554113</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01753718814496035</v>
+        <v>0.06549731873503727</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.01420979912669664</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1236,31 +1236,31 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1053206997084548</v>
+        <v>0.2624007936507936</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.01103896103896104</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09236535717367049</v>
+        <v>0.349285306143665</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03043017462685053</v>
+        <v>0.03242844646376503</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1283,25 +1283,25 @@
         <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.08928571428571427</v>
       </c>
       <c r="E17" t="n">
         <v>0.4464285714285714</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1114982578397213</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09794372294372293</v>
+        <v>0.1172077922077922</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05909292180195365</v>
+        <v>0.1079216045290567</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01659398158013117</v>
+        <v>0.01777126689869072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01753718814496049</v>
+        <v>0.02476545982203719</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1368,43 +1368,43 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08465608465608465</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01428571428571429</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01130023681561738</v>
+        <v>0.02476545982203716</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01644103511139523</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1412,28 +1412,28 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.1785714285714285</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08020050125313283</v>
+        <v>0.192063492063492</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00487012987012987</v>
+        <v>0.1237824675324675</v>
       </c>
       <c r="H20" t="n">
-        <v>0.006881639628517093</v>
+        <v>0.08364715390672049</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01380270852570022</v>
+        <v>0.03369044518629007</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
@@ -1456,34 +1456,34 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1563706563706564</v>
+        <v>0.1137218045112782</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.03474025974025974</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1037133471646375</v>
+        <v>0.007028479989280426</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01976762080640198</v>
+        <v>0.02740689442905509</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1500,43 +1500,43 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.2321428571428571</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2867063492063492</v>
+        <v>0.1252587991718426</v>
       </c>
       <c r="G22" t="n">
-        <v>0.002922077922077922</v>
+        <v>0.00367965367965368</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3832222162052167</v>
+        <v>0.06549731873503728</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03555915334793452</v>
+        <v>0.01420979912669664</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1547,25 +1547,25 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E23" t="n">
         <v>0.1607142857142857</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2542016806722689</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.03798701298701299</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1137300357129644</v>
+        <v>0.3687008775272114</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01396840053349749</v>
+        <v>0.03408536654173774</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1588,28 +1588,28 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.1763848396501458</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.08295454545454546</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0118257197427318</v>
+        <v>0.07915335993938728</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01330563250230841</v>
+        <v>0.01663691392223248</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1632,37 +1632,37 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.1785714285714285</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09937888198757763</v>
+        <v>0.132967032967033</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02329545454545455</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02053984022293772</v>
+        <v>0.0191950466113286</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01760087916597613</v>
+        <v>0.01415153380527342</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1676,28 +1676,28 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1607142857142857</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.2553088803088803</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.2806987224220769</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01396840053349749</v>
+        <v>0.02961168233121142</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1720,43 +1720,43 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1785714285714285</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.1330482897384306</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001623376623376623</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>6.938893903907227e-18</v>
+        <v>0.05046723071269853</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01396840053349749</v>
+        <v>0.01306270061117707</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1764,28 +1764,28 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.2698979591836734</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.003896103896103896</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01753718814496042</v>
+        <v>0.3687008775272111</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.03408536654173774</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1820,22 +1820,22 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-8.326672684688673e-17</v>
+        <v>0.02476545982203717</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01380270852570022</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -1861,31 +1861,31 @@
         <v>0.03571428571428571</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1032142857142857</v>
+        <v>0.1137218045112782</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.05162337662337663</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04567726526371029</v>
+        <v>0.006017680123025055</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01437079540957658</v>
+        <v>0.02740689442905509</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -1899,37 +1899,37 @@
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E31" t="n">
         <v>0.1785714285714285</v>
       </c>
       <c r="F31" t="n">
-        <v>0.108843537414966</v>
+        <v>0.0900297619047619</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01452922077922078</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02318822088671301</v>
+        <v>0.004383970654212766</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01729962096998109</v>
+        <v>0.01235904753910294</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>1</v>
@@ -1943,31 +1943,31 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2321428571428571</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2457482993197279</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2694921804922523</v>
+        <v>0.02476545982203716</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0294285490594355</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -1996,16 +1996,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01753718814496051</v>
+        <v>0.02476545982203716</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2028,37 +2028,37 @@
         <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08928571428571427</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07881773399014778</v>
+        <v>0.1271008403361344</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02077922077922078</v>
+        <v>0.0001082251082251082</v>
       </c>
       <c r="H34" t="n">
-        <v>0.008714120480205921</v>
+        <v>0.08500364892024181</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01345857897104435</v>
+        <v>0.02166593947757383</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
@@ -2072,34 +2072,34 @@
         <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06880952380952381</v>
+        <v>0.1094032549728752</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00258611633541142</v>
+        <v>0.00702847998928043</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01529393659587566</v>
+        <v>0.02740689442905509</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.1312003968253968</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-6.938893903907227e-17</v>
+        <v>0.01816382701046994</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01380270852570022</v>
+        <v>0.0119975377039089</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06880952380952381</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.002586116335411496</v>
+        <v>0.02476545982203717</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01529393659587566</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -2213,31 +2213,31 @@
         <v>0.01785714285714286</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.1041308089500861</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01753718814496038</v>
+        <v>0.004404809933186156</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.01249461372730071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01753718814496047</v>
+        <v>0.02476545982203716</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>52</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -2301,22 +2301,22 @@
         <v>0.01785714285714286</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.08928571428571427</v>
       </c>
       <c r="F40" t="n">
-        <v>0.06880952380952381</v>
+        <v>0.1137218045112782</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="H40" t="n">
-        <v>0.002586116335411482</v>
+        <v>0.01915485952939684</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01529393659587566</v>
+        <v>0.01215048417264484</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2348,19 +2348,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.1312003968253968</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01753718814496048</v>
+        <v>0.01816382701046994</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.0119975377039089</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2392,16 +2392,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01753718814496052</v>
+        <v>0.02476545982203717</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2427,37 +2427,37 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.1860119047619048</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-4.163336342344336e-17</v>
+        <v>0.1647608749153797</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01380270852570022</v>
+        <v>0.03337180670975685</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2480,16 +2480,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.09541847041847042</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01753718814496055</v>
+        <v>0.004395587946844417</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.01398584179747615</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01753718814496045</v>
+        <v>0.02476545982203717</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2568,16 +2568,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.09541847041847042</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01753718814496055</v>
+        <v>0.004395587946844404</v>
       </c>
       <c r="I46" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.01398584179747615</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.1686862244897959</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01753718814496044</v>
+        <v>0.08460814503820337</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.01431722581307069</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2656,22 +2656,22 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>-8.326672684688673e-17</v>
+        <v>0.02476545982203715</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01380270852570022</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -2700,16 +2700,16 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1053206997084548</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03375201247817442</v>
+        <v>0.02476545982203717</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01396840053349749</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2744,16 +2744,16 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01753718814496058</v>
+        <v>0.02476545982203717</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2788,16 +2788,16 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.09541847041847042</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01753718814496063</v>
+        <v>0.00439558794684442</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.01398584179747615</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2823,25 +2823,25 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.120016611295681</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.07677952579595014</v>
+        <v>0.02476545982203717</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01651204597187977</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01753718814496045</v>
+        <v>0.02476545982203716</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2911,25 +2911,25 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1563852813852814</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1137300357129643</v>
+        <v>0.02476545982203717</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0156253206114702</v>
+        <v>0.01159987688519545</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2964,22 +2964,22 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.1073457792207792</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2.775557561562891e-17</v>
+        <v>0.004404809933186151</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01380270852570022</v>
+        <v>0.01249461372730071</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3008,16 +3008,16 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.1211080586080586</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01753718814496066</v>
+        <v>0.01941557138354623</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01290797168359496</v>
+        <v>0.01266030573509798</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3052,19 +3052,19 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08897783251231525</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01182571974273184</v>
+        <v>0.08015272987717635</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01330563250230841</v>
+        <v>0.01845952600800246</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -3096,16 +3096,16 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.06880952380952381</v>
+        <v>0.09541847041847042</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.002586116335411503</v>
+        <v>0.004395587946844386</v>
       </c>
       <c r="I58" t="n">
-        <v>0.01529393659587566</v>
+        <v>0.01398584179747615</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>

--- a/data_excel.xlsx
+++ b/data_excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Page:</t>
   </si>
@@ -59,175 +59,136 @@
     <t>Have Third-party connection</t>
   </si>
   <si>
-    <t>/bank/pay-bills.html/</t>
-  </si>
-  <si>
-    <t>/resources/js/jquery-ui.min.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/view/DetailedReportWindow.js/</t>
+    <t>/bank/logout.aspx/</t>
+  </si>
+  <si>
+    <t>/%2fdefault.aspx/</t>
+  </si>
+  <si>
+    <t>/search.aspx/</t>
+  </si>
+  <si>
+    <t>/feedback.aspx/</t>
   </si>
   <si>
     <t>/</t>
   </si>
   <si>
-    <t>/bank/online-statements-by-name.html/</t>
-  </si>
-  <si>
-    <t>/bank/transfer-funds.html/</t>
-  </si>
-  <si>
-    <t>/resources/js/placeholders.min.js/</t>
-  </si>
-  <si>
-    <t>/bank/transfer-funds-verify.html/</t>
-  </si>
-  <si>
-    <t>/help.html/</t>
-  </si>
-  <si>
-    <t>/bank/online-statements.html/</t>
-  </si>
-  <si>
-    <t>/bank/redirect.html/</t>
-  </si>
-  <si>
-    <t>/online-banking.html/</t>
-  </si>
-  <si>
-    <t>/logout.html/</t>
-  </si>
-  <si>
-    <t>/bank/pay-bills-new-payee.html/</t>
-  </si>
-  <si>
-    <t>/resources/js/jquery-1.8.2.min.js/</t>
-  </si>
-  <si>
-    <t>/bank/money-map.html/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/ReportInflow.js/</t>
-  </si>
-  <si>
-    <t>/bank/money-map-get-spendings-by-type.html/</t>
-  </si>
-  <si>
-    <t>/bank/account-summary.html/</t>
-  </si>
-  <si>
-    <t>/43/auth/accept-certs.html/</t>
-  </si>
-  <si>
-    <t>/bank/pay-bills-saved-payee.html/</t>
-  </si>
-  <si>
-    <t>/index.html/</t>
-  </si>
-  <si>
-    <t>/bank/account-activity.html/</t>
-  </si>
-  <si>
-    <t>/login.html/</t>
-  </si>
-  <si>
-    <t>/search.html/</t>
-  </si>
-  <si>
-    <t>/bank/pay-bills-conversion-rate-for-currency.html/</t>
-  </si>
-  <si>
-    <t>/resources/js/bootstrap.min.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/view/Report.js/</t>
-  </si>
-  <si>
-    <t>/auth/security-check.html/</t>
-  </si>
-  <si>
-    <t>/bank/transfer-funds-confirm.html/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/ReportCredit.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/view/SummaryReport.js/</t>
-  </si>
-  <si>
-    <t>/bank/pay-bills-purchase-currency.html/</t>
-  </si>
-  <si>
-    <t>/auth/accept-certs.html/</t>
-  </si>
-  <si>
-    <t>/bank/account-activity-find-transactions.html/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/view/DetailedReport.js/</t>
-  </si>
-  <si>
-    <t>/signin.html/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/model/Report.js/</t>
-  </si>
-  <si>
-    <t>/bank/online-statements-for-account.html/</t>
-  </si>
-  <si>
-    <t>/bank/account-activity-show-transactions.html/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/view/Viewport.js/</t>
+    <t>/cgi.exe/</t>
+  </si>
+  <si>
+    <t>/default.aspx/</t>
+  </si>
+  <si>
+    <t>/disclaimer.htm/</t>
+  </si>
+  <si>
+    <t>/Privacypolicy.aspx/</t>
+  </si>
+  <si>
+    <t>/%2fnotfound.aspx%3faspxerrorpath%3d%2fPrivacypolicy.aspx/</t>
+  </si>
+  <si>
+    <t>/survey_complete.aspx/</t>
+  </si>
+  <si>
+    <t>/bank/main.aspx/</t>
+  </si>
+  <si>
+    <t>/../default.aspx/</t>
+  </si>
+  <si>
+    <t>/survey_questions.aspx/</t>
+  </si>
+  <si>
+    <t>/bank/login.aspx/</t>
+  </si>
+  <si>
+    <t>/comment.aspx/</t>
+  </si>
+  <si>
+    <t>/file:///C:\my%20documents\JohnSmith\Bank%20Site%20Documents\grouplife.htm/</t>
+  </si>
+  <si>
+    <t>/../admin/application.aspx/</t>
+  </si>
+  <si>
+    <t>/#time/</t>
+  </si>
+  <si>
+    <t>/notfound.aspx/</t>
+  </si>
+  <si>
+    <t>/admin/clients.xls/</t>
+  </si>
+  <si>
+    <t>/subscribe.swf/</t>
+  </si>
+  <si>
+    <t>/altoro/images/gradient.jpg/</t>
+  </si>
+  <si>
+    <t>/#gift/</t>
+  </si>
+  <si>
+    <t>/high_yield_investments.htm/</t>
+  </si>
+  <si>
+    <t>/../feedback.aspx/</t>
+  </si>
+  <si>
+    <t>/queryxpath.aspx/</t>
   </si>
   <si>
     <t>/#/</t>
   </si>
   <si>
-    <t>/#os_2011/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/DetailedReport.js/</t>
-  </si>
-  <si>
-    <t>/#os_2012/</t>
-  </si>
-  <si>
-    <t>/#carousel/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/ReportOutFlow.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/app.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/model/DetailedReport.js/</t>
-  </si>
-  <si>
-    <t>/#os_2010/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/ext/ext-all.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/ReportSummary.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/controller/Report.js/</t>
-  </si>
-  <si>
-    <t>/forgot-password.html/</t>
-  </si>
-  <si>
-    <t>/resources/js/jquery-1.7.2.min.js/</t>
-  </si>
-  <si>
-    <t>/a/</t>
-  </si>
-  <si>
-    <t>/#os_2009/</t>
+    <t>/pr/communityannualreport.pdf/</t>
+  </si>
+  <si>
+    <t>/login.aspx/</t>
+  </si>
+  <si>
+    <t>/logout.aspx/</t>
+  </si>
+  <si>
+    <t>/transaction.aspx/</t>
+  </si>
+  <si>
+    <t>/customize.aspx/</t>
+  </si>
+  <si>
+    <t>/retirement.htm/</t>
+  </si>
+  <si>
+    <t>/../cgi.exe/</t>
+  </si>
+  <si>
+    <t>/account.aspx/</t>
+  </si>
+  <si>
+    <t>/file:///C:\Documents\JohnSmith\VoluteeringInformation.pdf/</t>
+  </si>
+  <si>
+    <t>/#top/</t>
+  </si>
+  <si>
+    <t>/../admin/admin.aspx/</t>
+  </si>
+  <si>
+    <t>/transfer.aspx/</t>
+  </si>
+  <si>
+    <t>/main.aspx/</t>
+  </si>
+  <si>
+    <t>/inside_points_of_interest.htm/</t>
+  </si>
+  <si>
+    <t>/%2fbank%2fmain.aspx/</t>
+  </si>
+  <si>
+    <t>/security.htm/</t>
   </si>
 </sst>
 </file>
@@ -563,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,43 +581,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1728571428571428</v>
+        <v>0.1708796764408493</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04577922077922078</v>
+        <v>0.00830564784053156</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1544260969330206</v>
+        <v>0.2465172668008875</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02899925917931458</v>
+        <v>0.02587379476584022</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -667,25 +628,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1548594847775175</v>
+        <v>0.1231929604022627</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08366114574550718</v>
+        <v>0.04911531817099245</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01520395117348026</v>
+        <v>0.02258092286501377</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -708,28 +669,28 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1211080586080586</v>
+        <v>0.2456395348837209</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.02048726467331118</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02476545982203718</v>
+        <v>0.4251063420237834</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01159987688519545</v>
+        <v>0.04513713559168104</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -738,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -752,28 +713,28 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
       <c r="D5" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.2093023255813953</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.2183462532299741</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01937984496124031</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.769296615281638e-18</v>
+        <v>0.3118939867970849</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01266030573509798</v>
+        <v>0.04123634887839433</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -782,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -796,34 +757,34 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1167953667953668</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01623376623376623</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02355044747624124</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01513294031299572</v>
+        <v>0.01890126918536009</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
@@ -840,28 +801,28 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08928571428571427</v>
+        <v>0.2093023255813953</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1785714285714285</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1571428571428571</v>
+        <v>0.2399020807833537</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01566558441558441</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08325141688241333</v>
+        <v>0.3118939867970848</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01847690628854064</v>
+        <v>0.04123634887839433</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -870,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -884,28 +845,28 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2698979591836734</v>
+        <v>0.262015503875969</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1758028792912514</v>
       </c>
       <c r="H8" t="n">
-        <v>0.368700877527211</v>
+        <v>0.4381666326519959</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03408536654173774</v>
+        <v>0.06847993862198408</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -914,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -928,43 +889,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1137218045112782</v>
+        <v>0.157177225340818</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006818181818181818</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01910423430902503</v>
+        <v>0.08729892982302738</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01249461372730071</v>
+        <v>0.01701962809917355</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -972,28 +933,28 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08928571428571427</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2400793650793651</v>
+        <v>0.1511627906976744</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001623376623376623</v>
+        <v>0.007198228128460687</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3642960675940251</v>
+        <v>0.08729892982302745</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03093721839358959</v>
+        <v>0.01701962809917355</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1008,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1016,28 +977,28 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2321428571428571</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1516290726817043</v>
+        <v>0.113953488372093</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04285714285714286</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08347202877701961</v>
+        <v>0.01739316182548907</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01507940904893814</v>
+        <v>0.02580061983471074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1046,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1063,40 +1024,40 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="F12" t="n">
-        <v>0.210801393728223</v>
+        <v>0.1062225015713388</v>
       </c>
       <c r="G12" t="n">
-        <v>0.133495670995671</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1766750060003274</v>
+        <v>0.02712503796223598</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02464092209729329</v>
+        <v>0.02212096615505706</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1104,28 +1065,28 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1571428571428571</v>
+        <v>0.1786469344608879</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03733766233766234</v>
+        <v>0.0739202657807309</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08460814503820331</v>
+        <v>0.2999654561691563</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01266030573509798</v>
+        <v>0.02828856749311294</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1134,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1151,31 +1112,31 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2321428571428571</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2485902255639098</v>
+        <v>0.1688199827734712</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2806987224220769</v>
+        <v>0.1623276733976912</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02795476225323871</v>
+        <v>0.02648170957830048</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1192,40 +1153,40 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1252587991718426</v>
+        <v>0.1511627906976744</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004112554112554113</v>
+        <v>0.006644518272425249</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06549731873503727</v>
+        <v>0.1090196612747927</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01420979912669664</v>
+        <v>0.02253910861865407</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
@@ -1236,43 +1197,43 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2624007936507936</v>
+        <v>0.2068543451652387</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01103896103896104</v>
+        <v>0.03820598006644518</v>
       </c>
       <c r="H16" t="n">
-        <v>0.349285306143665</v>
+        <v>0.2682646076454334</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03242844646376503</v>
+        <v>0.03721172766627311</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1280,40 +1241,40 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08928571428571427</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4464285714285714</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1571428571428571</v>
+        <v>0.1310077519379845</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1172077922077922</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1079216045290567</v>
+        <v>0.06214076845793978</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01777126689869072</v>
+        <v>0.01855630165289256</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
@@ -1330,22 +1291,22 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1211080586080586</v>
+        <v>0.157177225340818</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02476545982203719</v>
+        <v>0.08729892982302734</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01159987688519545</v>
+        <v>0.01701962809917355</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1374,22 +1335,22 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1211080586080586</v>
+        <v>0.1266149870801034</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02476545982203716</v>
+        <v>0.05976416585842972</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01159987688519545</v>
+        <v>0.01762754291163382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1401,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1412,43 +1373,43 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1785714285714285</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.192063492063492</v>
+        <v>0.157177225340818</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1237824675324675</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08364715390672049</v>
+        <v>0.08729892982302753</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03369044518629007</v>
+        <v>0.01701962809917355</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1456,43 +1417,43 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1137218045112782</v>
+        <v>0.1572093023255814</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03474025974025974</v>
+        <v>0.0221483942414175</v>
       </c>
       <c r="H21" t="n">
-        <v>0.007028479989280426</v>
+        <v>0.1046920916485165</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02740689442905509</v>
+        <v>0.02667871900826446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>2</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1500,43 +1461,43 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2321428571428571</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1252587991718426</v>
+        <v>0.157177225340818</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00367965367965368</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06549731873503728</v>
+        <v>0.08729892982302745</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01420979912669664</v>
+        <v>0.01701962809917355</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1544,28 +1505,28 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1607142857142857</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2542016806722689</v>
+        <v>0.157177225340818</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03798701298701299</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3687008775272114</v>
+        <v>0.08729892982302734</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03408536654173774</v>
+        <v>0.01701962809917355</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1574,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1588,43 +1549,43 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2678571428571428</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1763848396501458</v>
+        <v>0.1111741349971639</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08295454545454546</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07915335993938728</v>
+        <v>0.01739316182548914</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01663691392223248</v>
+        <v>0.01890126918536009</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1632,43 +1593,43 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1785714285714285</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.132967032967033</v>
+        <v>0.157177225340818</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03246753246753246</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0191950466113286</v>
+        <v>0.08729892982302739</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01415153380527342</v>
+        <v>0.01701962809917355</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1676,28 +1637,28 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2553088803088803</v>
+        <v>0.1455641688199828</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.01439645625692137</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2806987224220769</v>
+        <v>0.08729892982302742</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02961168233121142</v>
+        <v>0.01701962809917355</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1706,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1726,25 +1687,25 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1330482897384306</v>
+        <v>0.157177225340818</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05046723071269853</v>
+        <v>0.1132123552266987</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01306270061117707</v>
+        <v>0.02004231563890654</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1753,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1764,28 +1725,28 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01785714285714286</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2698979591836734</v>
+        <v>0.1266149870801034</v>
       </c>
       <c r="G28" t="n">
-        <v>0.003896103896103896</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3687008775272111</v>
+        <v>0.05976416585842977</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03408536654173774</v>
+        <v>0.01762754291163382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1814,22 +1775,22 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1211080586080586</v>
+        <v>0.1189217758985201</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02476545982203717</v>
+        <v>0.01739316182548925</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01159987688519545</v>
+        <v>0.03545971074380165</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1852,34 +1813,34 @@
         <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01785714285714286</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1137218045112782</v>
+        <v>0.157177225340818</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05162337662337663</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.006017680123025055</v>
+        <v>0.08729892982302756</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02740689442905509</v>
+        <v>0.01701962809917355</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -1896,43 +1857,43 @@
         <v>43</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1785714285714285</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0900297619047619</v>
+        <v>0.1381254404510218</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.004383970654212766</v>
+        <v>0.05344818936826888</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01235904753910294</v>
+        <v>0.01855630165289256</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1946,28 +1907,28 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1211080586080586</v>
+        <v>0.1266149870801034</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02476545982203716</v>
+        <v>0.05976416585842992</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01159987688519545</v>
+        <v>0.01762754291163382</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -1990,22 +1951,22 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1211080586080586</v>
+        <v>0.1266149870801034</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02476545982203716</v>
+        <v>0.05976416585842974</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01159987688519545</v>
+        <v>0.01762754291163382</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2028,40 +1989,40 @@
         <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1271008403361344</v>
+        <v>0.1266149870801034</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0001082251082251082</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08500364892024181</v>
+        <v>0.05976416585842979</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02166593947757383</v>
+        <v>0.01762754291163382</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2072,34 +2033,34 @@
         <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1094032549728752</v>
+        <v>0.1455641688199828</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00702847998928043</v>
+        <v>0.08729892982302737</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02740689442905509</v>
+        <v>0.01701962809917355</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2122,25 +2083,25 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1312003968253968</v>
+        <v>0.1381254404510218</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01816382701046994</v>
+        <v>0.05344818936826887</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0119975377039089</v>
+        <v>0.01855630165289256</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2166,28 +2127,28 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1211080586080586</v>
+        <v>0.1266149870801034</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02476545982203717</v>
+        <v>0.05976416585842975</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01159987688519545</v>
+        <v>0.01762754291163382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2204,40 +2165,40 @@
         <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1041308089500861</v>
+        <v>0.157177225340818</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.004404809933186156</v>
+        <v>0.08729892982302742</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01249461372730071</v>
+        <v>0.01701962809917355</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2254,22 +2215,22 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1211080586080586</v>
+        <v>0.157177225340818</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02476545982203716</v>
+        <v>0.08729892982302731</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01159987688519545</v>
+        <v>0.01701962809917355</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2292,31 +2253,31 @@
         <v>52</v>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08928571428571427</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1137218045112782</v>
+        <v>0.1266149870801034</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01915485952939684</v>
+        <v>0.05976416585842984</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01215048417264484</v>
+        <v>0.01762754291163382</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2325,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2342,25 +2303,25 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1312003968253968</v>
+        <v>0.1266149870801034</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01816382701046994</v>
+        <v>0.05976416585842986</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0119975377039089</v>
+        <v>0.01762754291163382</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2369,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2386,22 +2347,22 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1211080586080586</v>
+        <v>0.1266149870801034</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.02476545982203717</v>
+        <v>0.05976416585842981</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01159987688519545</v>
+        <v>0.01762754291163382</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2427,25 +2388,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1860119047619048</v>
+        <v>0.157177225340818</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1647608749153797</v>
+        <v>0.08729892982302739</v>
       </c>
       <c r="I43" t="n">
-        <v>0.03337180670975685</v>
+        <v>0.01701962809917355</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2474,22 +2435,22 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09541847041847042</v>
+        <v>0.1381254404510218</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.004395587946844417</v>
+        <v>0.05344818936826889</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01398584179747615</v>
+        <v>0.01855630165289256</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2518,22 +2479,22 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1211080586080586</v>
+        <v>0.1111741349971639</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02476545982203717</v>
+        <v>0.01739316182548903</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01159987688519545</v>
+        <v>0.01890126918536009</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2548,578 +2509,6 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.09541847041847042</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.004395587946844404</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.01398584179747615</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.1686862244897959</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.08460814503820337</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.01431722581307069</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.1211080586080586</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.02476545982203715</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.01159987688519545</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.1211080586080586</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.02476545982203717</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.01159987688519545</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.1211080586080586</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.02476545982203717</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.01159987688519545</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.09541847041847042</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.00439558794684442</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.01398584179747615</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.1211080586080586</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.02476545982203717</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.01159987688519545</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.1211080586080586</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.02476545982203716</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.01159987688519545</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.1211080586080586</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.02476545982203717</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.01159987688519545</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.1073457792207792</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.004404809933186151</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.01249461372730071</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.1211080586080586</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.01941557138354623</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.01266030573509798</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.08015272987717635</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.01845952600800246</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.09541847041847042</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.004395587946844386</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.01398584179747615</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
         <v>0</v>
       </c>
     </row>
